--- a/data.xlsx
+++ b/data.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05-11-2022" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,10 +18,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -39,12 +46,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -57,14 +79,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -429,7 +454,7 @@
   </sheetPr>
   <dimension ref="A1:CD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -875,7 +900,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$2.51T</t>
+          <t>$2.94T</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1029,11 +1054,6 @@
           <t>$125.87</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
       <c r="AN2" t="inlineStr">
         <is>
           <t>05-12-2022</t>
@@ -1198,22 +1218,7 @@
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>15,821,950,000</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>0.17%</t>
-        </is>
-      </c>
-      <c r="CD2" t="inlineStr">
-        <is>
-          <t>0.08%</t>
+          <t>15,728,700,000</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1250,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$611.12B</t>
+          <t>$838.68B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1399,11 +1404,6 @@
           <t>$108.24</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>9.84</t>
-        </is>
-      </c>
       <c r="AN3" t="inlineStr">
         <is>
           <t>05-12-2022</t>
@@ -1568,27 +1568,12 @@
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>3,164,100,000</t>
-        </is>
-      </c>
-      <c r="CB3" t="inlineStr">
-        <is>
-          <t>3.67%</t>
-        </is>
-      </c>
-      <c r="CC3" t="inlineStr">
-        <is>
-          <t>0.98%</t>
-        </is>
-      </c>
-      <c r="CD3" t="inlineStr">
-        <is>
-          <t>0.42%</t>
+          <t>3,169,500,000</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1607,412 +1592,412 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>today</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>ticker</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>primary_exchange</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>list_date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>market_cap</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>today_c</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>today_h</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>today_l</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>today_o</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>today_v</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>today_vw</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>today_n</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>today_r3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>today_r4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>today_r6</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>today_s3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>today_s4</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>today_s6</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>prev_day</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>prev_c</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>prev_h</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>prev_l</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>prev_o</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>prev_v</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>prev_vw</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>prev_n</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>prev_r3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>prev_r4</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>prev_r6</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>prev_s3</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>prev_s4</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>prev_s6</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>tight_r6</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t>tight_s6</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" s="2" t="inlineStr">
         <is>
           <t>52W High</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" s="2" t="inlineStr">
         <is>
           <t>52W Low</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" s="2" t="inlineStr">
         <is>
           <t>STRAT Method</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" s="2" t="inlineStr">
         <is>
           <t>ATR 14 Days</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" s="2" t="inlineStr">
         <is>
           <t>next_day</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" s="2" t="inlineStr">
         <is>
           <t>next_c</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" s="2" t="inlineStr">
         <is>
           <t>next_h</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" s="2" t="inlineStr">
         <is>
           <t>next_l</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" s="2" t="inlineStr">
         <is>
           <t>next_o</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" s="2" t="inlineStr">
         <is>
           <t>next_v</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" s="2" t="inlineStr">
         <is>
           <t>next_vw</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" s="2" t="inlineStr">
         <is>
           <t>next_n</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" s="2" t="inlineStr">
         <is>
           <t>next_h_time</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" s="2" t="inlineStr">
         <is>
           <t>next_l_time</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" s="2" t="inlineStr">
         <is>
           <t>R4 Premarket</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" s="2" t="inlineStr">
         <is>
           <t>S4 Premarket</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" s="2" t="inlineStr">
         <is>
           <t>last_H_eq_cam</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" s="2" t="inlineStr">
         <is>
           <t>last_L_eq_cam</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BB1" s="2" t="inlineStr">
         <is>
           <t>52W_H_eq_cam</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BC1" s="2" t="inlineStr">
         <is>
           <t>52W_L_eq_cam</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BD1" s="2" t="inlineStr">
         <is>
           <t>Next Earning Date</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BE1" s="2" t="inlineStr">
         <is>
           <t>Total Range %</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BF1" s="2" t="inlineStr">
         <is>
           <t>Gap %</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BG1" s="2" t="inlineStr">
         <is>
           <t>Premarket Volume (cumm)</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BH1" s="2" t="inlineStr">
         <is>
           <t>Premarket High</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BI1" s="2" t="inlineStr">
         <is>
           <t>Premarket High Time</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BJ1" s="2" t="inlineStr">
         <is>
           <t>Premarket Low</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BK1" s="2" t="inlineStr">
         <is>
           <t>Premarket Low Time</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BL1" s="2" t="inlineStr">
         <is>
           <t>Premarket Range %</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BM1" s="2" t="inlineStr">
         <is>
           <t>Daily Volume Forecast</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BN1" s="2" t="inlineStr">
         <is>
           <t>First Hour Volume</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BO1" s="2" t="inlineStr">
         <is>
           <t>Regular Market High Time</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BP1" s="2" t="inlineStr">
         <is>
           <t>Regular Market Low Time</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BQ1" s="2" t="inlineStr">
         <is>
           <t>Highest Volume Time</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BR1" s="2" t="inlineStr">
         <is>
           <t>Highest Volume Time - num_trans</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BS1" s="2" t="inlineStr">
         <is>
           <t>Highest Volume</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BT1" s="2" t="inlineStr">
         <is>
           <t>Aggregated Volume Before Highest Volume</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BU1" s="2" t="inlineStr">
         <is>
           <t>Highest Bar Volume Ratio %</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BV1" s="2" t="inlineStr">
         <is>
           <t>Target 0%</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BW1" s="2" t="inlineStr">
         <is>
           <t>Target 25%</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BX1" s="2" t="inlineStr">
         <is>
           <t>Target 50%</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BY1" s="2" t="inlineStr">
         <is>
           <t>Target 75%</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BZ1" s="2" t="inlineStr">
         <is>
           <t>Target 100%</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CA1" s="2" t="inlineStr">
         <is>
           <t>share_class_shares_outstanding</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CB1" s="2" t="inlineStr">
         <is>
           <t>Daily FT %</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CC1" s="2" t="inlineStr">
         <is>
           <t>PM FT %</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CD1" s="2" t="inlineStr">
         <is>
           <t>First Hour FT %</t>
         </is>
@@ -2046,7 +2031,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$2.06T</t>
+          <t>$2.53T</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2200,11 +2185,6 @@
           <t>$213.43</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
       <c r="AN2" t="inlineStr">
         <is>
           <t>05-13-2022</t>
@@ -2369,22 +2349,7 @@
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>7,443,800,000</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>0.69%</t>
-        </is>
-      </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>0.15%</t>
-        </is>
-      </c>
-      <c r="CD2" t="inlineStr">
-        <is>
-          <t>0.09%</t>
+          <t>7,435,490,000</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2381,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$659.14B</t>
+          <t>$1.06T</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2570,11 +2535,6 @@
           <t>$108.13</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>9.98</t>
-        </is>
-      </c>
       <c r="AN3" t="inlineStr">
         <is>
           <t>05-13-2022</t>
@@ -2740,21 +2700,6 @@
       <c r="CA3" t="inlineStr">
         <is>
           <t>2,470,000,000</t>
-        </is>
-      </c>
-      <c r="CB3" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="CC3" t="inlineStr">
-        <is>
-          <t>0.91%</t>
-        </is>
-      </c>
-      <c r="CD3" t="inlineStr">
-        <is>
-          <t>0.47%</t>
         </is>
       </c>
     </row>
@@ -2778,412 +2723,412 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>today</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>ticker</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>primary_exchange</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>list_date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>market_cap</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>today_c</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>today_h</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>today_l</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>today_o</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>today_v</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>today_vw</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>today_n</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>today_r3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>today_r4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>today_r6</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>today_s3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>today_s4</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>today_s6</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>prev_day</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>prev_c</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>prev_h</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>prev_l</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>prev_o</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>prev_v</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>prev_vw</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>prev_n</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>prev_r3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>prev_r4</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>prev_r6</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>prev_s3</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>prev_s4</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>prev_s6</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>tight_r6</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t>tight_s6</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" s="2" t="inlineStr">
         <is>
           <t>52W High</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" s="2" t="inlineStr">
         <is>
           <t>52W Low</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" s="2" t="inlineStr">
         <is>
           <t>STRAT Method</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" s="2" t="inlineStr">
         <is>
           <t>ATR 14 Days</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" s="2" t="inlineStr">
         <is>
           <t>next_day</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" s="2" t="inlineStr">
         <is>
           <t>next_c</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" s="2" t="inlineStr">
         <is>
           <t>next_h</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" s="2" t="inlineStr">
         <is>
           <t>next_l</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" s="2" t="inlineStr">
         <is>
           <t>next_o</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" s="2" t="inlineStr">
         <is>
           <t>next_v</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" s="2" t="inlineStr">
         <is>
           <t>next_vw</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" s="2" t="inlineStr">
         <is>
           <t>next_n</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" s="2" t="inlineStr">
         <is>
           <t>next_h_time</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" s="2" t="inlineStr">
         <is>
           <t>next_l_time</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" s="2" t="inlineStr">
         <is>
           <t>R4 Premarket</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" s="2" t="inlineStr">
         <is>
           <t>S4 Premarket</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" s="2" t="inlineStr">
         <is>
           <t>last_H_eq_cam</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" s="2" t="inlineStr">
         <is>
           <t>last_L_eq_cam</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BB1" s="2" t="inlineStr">
         <is>
           <t>52W_H_eq_cam</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BC1" s="2" t="inlineStr">
         <is>
           <t>52W_L_eq_cam</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BD1" s="2" t="inlineStr">
         <is>
           <t>Next Earning Date</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BE1" s="2" t="inlineStr">
         <is>
           <t>Total Range %</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BF1" s="2" t="inlineStr">
         <is>
           <t>Gap %</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BG1" s="2" t="inlineStr">
         <is>
           <t>Premarket Volume (cumm)</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BH1" s="2" t="inlineStr">
         <is>
           <t>Premarket High</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BI1" s="2" t="inlineStr">
         <is>
           <t>Premarket High Time</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BJ1" s="2" t="inlineStr">
         <is>
           <t>Premarket Low</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BK1" s="2" t="inlineStr">
         <is>
           <t>Premarket Low Time</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BL1" s="2" t="inlineStr">
         <is>
           <t>Premarket Range %</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BM1" s="2" t="inlineStr">
         <is>
           <t>Daily Volume Forecast</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BN1" s="2" t="inlineStr">
         <is>
           <t>First Hour Volume</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BO1" s="2" t="inlineStr">
         <is>
           <t>Regular Market High Time</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BP1" s="2" t="inlineStr">
         <is>
           <t>Regular Market Low Time</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BQ1" s="2" t="inlineStr">
         <is>
           <t>Highest Volume Time</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BR1" s="2" t="inlineStr">
         <is>
           <t>Highest Volume Time - num_trans</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BS1" s="2" t="inlineStr">
         <is>
           <t>Highest Volume</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BT1" s="2" t="inlineStr">
         <is>
           <t>Aggregated Volume Before Highest Volume</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BU1" s="2" t="inlineStr">
         <is>
           <t>Highest Bar Volume Ratio %</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BV1" s="2" t="inlineStr">
         <is>
           <t>Target 0%</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BW1" s="2" t="inlineStr">
         <is>
           <t>Target 25%</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BX1" s="2" t="inlineStr">
         <is>
           <t>Target 50%</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BY1" s="2" t="inlineStr">
         <is>
           <t>Target 75%</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BZ1" s="2" t="inlineStr">
         <is>
           <t>Target 100%</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CA1" s="2" t="inlineStr">
         <is>
           <t>share_class_shares_outstanding</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CB1" s="2" t="inlineStr">
         <is>
           <t>Daily FT %</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CC1" s="2" t="inlineStr">
         <is>
           <t>PM FT %</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CD1" s="2" t="inlineStr">
         <is>
           <t>First Hour FT %</t>
         </is>
@@ -3217,7 +3162,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$467.7B</t>
+          <t>$478.34B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -3372,11 +3317,7 @@
         </is>
       </c>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
+      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
           <t>05-14-2022</t>
@@ -3496,24 +3437,12 @@
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>1,624,950,000</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>0.09%</t>
-        </is>
-      </c>
-      <c r="CD2" t="inlineStr">
-        <is>
-          <t>0.05%</t>
-        </is>
-      </c>
+          <t>1,618,220,000</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
